--- a/AboutJob/PenetrationMap/data/店點資訊.xlsx
+++ b/AboutJob/PenetrationMap/data/店點資訊.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RT009223\Projects\AboutJob\PenetrationMap\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RT009223\Github\Projects\AboutJob\PenetrationMap\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -585,7 +585,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>25.092606</v>
+        <v>25.082605999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>121.520207</v>
+        <v>121.51020699999999</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>6</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>25.029195000000001</v>
+        <v>25.059194999999999</v>
       </c>
       <c r="E3" s="1">
         <v>121.422794</v>
@@ -671,7 +671,7 @@
         <v>25.08173</v>
       </c>
       <c r="E4" s="1">
-        <v>121.480254</v>
+        <v>121.46025400000001</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>7</v>
@@ -688,10 +688,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>25.030080000000002</v>
+        <v>24.93008</v>
       </c>
       <c r="E5" s="1">
-        <v>121.551591</v>
+        <v>121.541591</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>6</v>
